--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>建物標示</t>
   </si>
@@ -120,6 +120,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>楊明哲</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-12</t>
@@ -739,13 +745,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -773,13 +779,16 @@
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -797,24 +806,27 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1728</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -829,12 +841,15 @@
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1728</v>
       </c>
     </row>
@@ -853,13 +868,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -867,13 +882,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -881,13 +896,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -895,10 +910,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -909,10 +924,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -936,19 +951,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -956,22 +971,22 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>建物標示</t>
   </si>
@@ -123,6 +123,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -132,6 +135,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>曰盛證券股份有限公司</t>
   </si>
   <si>
@@ -144,7 +153,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>tmp48bc1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -745,13 +760,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
@@ -782,13 +797,22 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -806,27 +830,36 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1728</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -841,16 +874,25 @@
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1728</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -868,13 +910,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -882,13 +924,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -896,13 +938,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -910,10 +952,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -924,10 +966,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -951,19 +993,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -971,22 +1013,22 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -42,22 +42,22 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大同區市府段一小段 00927-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 1</t>
+    <t>臺北市大同區市府段一小段00927000建號</t>
+  </si>
+  <si>
+    <t>10000分之1</t>
   </si>
   <si>
     <t>王育敏</t>
   </si>
   <si>
-    <t>98年09月 02 H</t>
+    <t>98年09月02H</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>5,000，000(為 地上權房屋， 僅有使用權45 年，無土地所 有權’無權利 持分）</t>
+    <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -69,13 +69,13 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>HONDA CITY</t>
-  </si>
-  <si>
-    <t>87年10月 01日</t>
-  </si>
-  <si>
-    <t>400，000(超過 五年）</t>
+    <t>HONDACITY</t>
+  </si>
+  <si>
+    <t>87年10月01日</t>
+  </si>
+  <si>
+    <t>400000(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -180,7 +180,7 @@
     <t>富邦人壽終身醫療健康保險</t>
   </si>
   <si>
-    <t>富邦人壽真安心醫療養老保 險</t>
+    <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
     <t>南山人壽增值分紅養老壽險</t>
@@ -207,10 +207,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>京城銀行忠孝分行 臺北市南港區忠孝東路</t>
-  </si>
-  <si>
-    <t>98年10月 27 H</t>
+    <t>京城銀行忠孝分行臺北市南港區忠孝東路</t>
+  </si>
+  <si>
+    <t>98年10月27H</t>
   </si>
   <si>
     <t>買屋貸款</t>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>臺北市大同區市府段一小段00927000建號</t>
   </si>
@@ -60,15 +39,6 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>HONDACITY</t>
   </si>
   <si>
@@ -78,30 +48,18 @@
     <t>400000(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>永豐商業銀行建成分行</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -141,9 +99,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>曰盛證券股份有限公司</t>
-  </si>
-  <si>
     <t>永豐金證券股份有限公司</t>
   </si>
   <si>
@@ -162,24 +117,15 @@
     <t>tmp48bc1</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>富邦人壽終身醫療健康保險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽終身醫療健康保險</t>
-  </si>
-  <si>
     <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
@@ -187,21 +133,6 @@
   </si>
   <si>
     <t>南山人壽還本養老壽險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -572,59 +503,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -634,53 +539,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +572,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,58 +580,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>900000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
         <v>650000</v>
       </c>
     </row>
@@ -760,7 +622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -768,130 +630,86 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
         <v>1728</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
-        <v>250000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1728</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2">
         <v>52</v>
       </c>
     </row>
@@ -902,7 +720,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -910,69 +728,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -982,53 +786,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
   <si>
     <t>臺北市大同區市府段一小段00927000建號</t>
   </si>
@@ -39,6 +87,18 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-12</t>
+  </si>
+  <si>
+    <t>tmp48bc1</t>
+  </si>
+  <si>
     <t>HONDACITY</t>
   </si>
   <si>
@@ -60,12 +120,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -75,28 +129,7 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>曰盛證券股份有限公司</t>
   </si>
   <si>
     <t>永豐金證券股份有限公司</t>
@@ -106,15 +139,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-12</t>
-  </si>
-  <si>
-    <t>tmp48bc1</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -503,33 +527,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
         <v>27.9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.00279</v>
       </c>
     </row>
   </sheetData>
@@ -539,30 +643,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1">
         <v>1500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +699,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,16 +707,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1">
         <v>900000</v>
@@ -597,21 +724,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
         <v>650000</v>
       </c>
     </row>
@@ -622,7 +769,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -630,86 +777,130 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1728</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2">
+      <c r="G3" s="2">
+        <v>250000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>52</v>
       </c>
     </row>
@@ -720,7 +911,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,55 +919,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -786,30 +991,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>tmp48bc1</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>HONDACITY</t>
@@ -643,38 +646,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
-        <v>1500</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>1500</v>
@@ -683,13 +707,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -707,13 +752,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -727,13 +772,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -747,13 +792,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -783,13 +828,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -821,7 +866,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -833,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -865,10 +910,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -877,13 +922,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -919,13 +964,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -933,13 +978,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -947,13 +992,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -961,10 +1006,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -975,10 +1020,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -999,22 +1044,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1022,22 +1067,22 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -87,7 +87,7 @@
     <t>5000000(為地上權房屋僅有使用權45年無土地所有權無權利持分）</t>
   </si>
   <si>
-    <t>land</t>
+    <t>building</t>
   </si>
   <si>
     <t>normal</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>400000(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>永豐商業銀行建成分行</t>
@@ -716,7 +719,7 @@
         <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -752,13 +755,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -772,13 +775,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -792,13 +795,13 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -828,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -866,7 +869,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -878,13 +881,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -910,10 +913,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -922,13 +925,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -964,13 +967,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -978,13 +981,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -992,13 +995,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1006,10 +1009,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1020,10 +1023,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1044,22 +1047,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1067,22 +1070,22 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -114,25 +114,34 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>永豐商業銀行建成分行</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>曰盛證券股份有限公司</t>
@@ -747,13 +756,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -764,24 +773,45 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -789,25 +819,67 @@
       <c r="F2" s="2">
         <v>900000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>650000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -831,13 +903,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -869,7 +941,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -881,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -913,10 +985,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>25000</v>
@@ -925,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>250000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -967,13 +1039,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -981,13 +1053,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -995,13 +1067,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1009,10 +1081,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1023,10 +1095,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1047,22 +1119,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1070,22 +1142,22 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
+++ b/legislator/property/output/normal/王育敏_2012-04-12_財產申報表_tmp48bc1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -156,15 +156,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>富邦人壽終身醫療健康保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>富邦人壽真安心醫療養老保險</t>
   </si>
   <si>
@@ -174,6 +177,15 @@
     <t>南山人壽還本養老壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -184,6 +196,9 @@
   </si>
   <si>
     <t>買屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1031,52 +1046,115 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>77</v>
       </c>
@@ -1084,13 +1162,34 @@
         <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>78</v>
       </c>
@@ -1098,10 +1197,31 @@
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1728</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1111,53 +1231,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1728</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
